--- a/文献阅读记录.xlsx
+++ b/文献阅读记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21450" windowHeight="11775"/>
+    <workbookView windowWidth="24150" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>文献</t>
+  </si>
+  <si>
+    <t>提出的问题</t>
+  </si>
   <si>
     <t>From Macro to Micro: A Lightweight Interleaved  Network for Remote Sensing Image  Change Detection</t>
+  </si>
+  <si>
+    <t>遥感影像变化检测中，
+1.细小变化目标定位困难
+2.现有模型复杂度高</t>
   </si>
 </sst>
 </file>
@@ -965,21 +976,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="49.9916666666667" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.15" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
